--- a/accordion-rental/backend/rendipillid.xlsx
+++ b/accordion-rental/backend/rendipillid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/cs50/166232074/project2/accordion-rental/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCA6AFC-E6A0-9B42-A6F0-9F60908A1ED7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BD9BBF-378F-BF47-82CD-7B269D29D251}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="180" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="2240" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="87">
   <si>
     <t>instrumentId</t>
   </si>
@@ -149,9 +149,6 @@
   <si>
     <t>The accordion is in 100% working order, the only scratches on the top of the front of the keyboard from the strap buckle.
 The case is fine, but more used.</t>
-  </si>
-  <si>
-    <t>0783/011</t>
   </si>
   <si>
     <t xml:space="preserve">The accordion is in 100% working order, there are no major scratches or deformations. Individual barely noticeable traces of use on the case
@@ -664,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -716,7 +713,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -742,7 +739,7 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -768,7 +765,7 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -820,7 +817,7 @@
         <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -846,7 +843,7 @@
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -872,7 +869,7 @@
         <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -898,7 +895,7 @@
         <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -950,10 +947,10 @@
         <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -976,7 +973,7 @@
         <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1002,10 +999,10 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1028,7 +1025,7 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1044,17 +1041,17 @@
       <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="D15" t="s">
-        <v>41</v>
+      <c r="D15">
+        <v>6871</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1077,10 +1074,10 @@
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1096,14 +1093,17 @@
       <c r="C17" t="s">
         <v>9</v>
       </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
       <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" t="s">
         <v>43</v>
       </c>
-      <c r="F17" t="s">
-        <v>44</v>
-      </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1123,13 +1123,13 @@
         <v>6871</v>
       </c>
       <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
         <v>45</v>
       </c>
-      <c r="F18" t="s">
-        <v>46</v>
-      </c>
       <c r="G18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -1146,16 +1146,16 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
         <v>47</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>48</v>
       </c>
-      <c r="F19" t="s">
-        <v>49</v>
-      </c>
       <c r="G19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -1172,16 +1172,16 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -1195,19 +1195,19 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
         <v>51</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>52</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>53</v>
       </c>
-      <c r="F21" t="s">
-        <v>54</v>
-      </c>
       <c r="G21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -1221,19 +1221,19 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22">
         <v>33467040</v>
       </c>
       <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" t="s">
         <v>56</v>
       </c>
-      <c r="F22" t="s">
-        <v>57</v>
-      </c>
       <c r="G22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -1247,19 +1247,19 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23">
         <v>33467241</v>
       </c>
       <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" t="s">
         <v>56</v>
       </c>
-      <c r="F23" t="s">
-        <v>57</v>
-      </c>
       <c r="G23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -1276,16 +1276,16 @@
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -1299,19 +1299,19 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
         <v>60</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>61</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>62</v>
       </c>
-      <c r="F25" t="s">
-        <v>63</v>
-      </c>
       <c r="G25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -1328,16 +1328,16 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" t="s">
         <v>64</v>
       </c>
-      <c r="E26" t="s">
-        <v>65</v>
-      </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -1351,19 +1351,19 @@
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" t="s">
         <v>66</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>67</v>
       </c>
-      <c r="F27" t="s">
-        <v>68</v>
-      </c>
       <c r="G27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -1377,19 +1377,19 @@
         <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" t="s">
         <v>69</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>70</v>
       </c>
-      <c r="F28" t="s">
-        <v>71</v>
-      </c>
       <c r="G28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -1406,16 +1406,16 @@
         <v>24</v>
       </c>
       <c r="D29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" t="s">
         <v>72</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>73</v>
       </c>
-      <c r="F29" t="s">
-        <v>74</v>
-      </c>
       <c r="G29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -1435,13 +1435,13 @@
         <v>21625</v>
       </c>
       <c r="E30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" t="s">
         <v>75</v>
       </c>
-      <c r="F30" t="s">
-        <v>76</v>
-      </c>
       <c r="G30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -1461,13 +1461,13 @@
         <v>4223</v>
       </c>
       <c r="E31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" t="s">
         <v>77</v>
       </c>
-      <c r="F31" t="s">
-        <v>78</v>
-      </c>
       <c r="G31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -1481,19 +1481,19 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D32">
         <v>219</v>
       </c>
       <c r="E32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" t="s">
         <v>79</v>
       </c>
-      <c r="F32" t="s">
-        <v>80</v>
-      </c>
       <c r="G32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -1510,13 +1510,13 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s">
         <v>8</v>
@@ -1542,10 +1542,10 @@
         <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -1559,19 +1559,19 @@
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D35">
         <v>19875</v>
       </c>
       <c r="E35" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" t="s">
         <v>83</v>
       </c>
-      <c r="F35" t="s">
-        <v>84</v>
-      </c>
       <c r="G35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H35">
         <v>2</v>
